--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,11 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for recording functional scores (mRS, NIHSS), using an extension for timing context.</t>
+    <t>Profile for recording stroke functional outcome and severity scores, currently mRS and NIHSS, in a way that is both interoperable and context-aware. The profile requires a timing context extension (ObservationTimingContextExtension) to explicitly state the clinical phase (e.g., pre-stroke baseline, admission, discharge, ~3-month follow-up), enabling unambiguous interpretation and standardized reporting.
+Observation.code is bound to FunctionalScoreCodesVS, and invariants constrain Observation.value[x] by instrument:
+- For mRS (SNOMED CT observable entity), the result is represented as a CodeableConcept bound to MRsScoreVS (ordinal categories 0–6).
+- For NIHSS (SNOMED CT observable entity), the result is represented as an integer total score (valueInteger), reflecting the overall NIHSS total rather than item-level subscores.
+The profile does not model itemized NIHSS components, assessor training, or interview method; implementers may represent those details separately when needed (e.g., additional Observations, extensions, or provenance).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="514">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Stroke Functional Score Observation Profile (R5, Timing Ext)</t>
+    <t>Stroke Functional Score Observation Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -490,13 +490,14 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>n/a,N/A</t>
+    <t>Observation Timing Context Extension</t>
+  </si>
+  <si>
+    <t>This extension captures the clinical timing context (relative phase) in which an observation or assessment was made (e.g., pre-stroke baseline, admission, discharge, ~3-month follow-up). It is particularly important for functional outcomes and severity scores whose interpretation depends on *when* they were assessed.
+The extension complements Observation.effective[x]:
+- effective[x] records the actual date/time (when known),
+- this extension records the standardized phase label used for reporting and comparability across sites.
+The value is a required CodeableConcept bound to AssessmentContextVS (required), ensuring only supported timing contexts are used in this implementation guide.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -3229,7 +3230,7 @@
         <v>20</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>20</v>
@@ -3237,14 +3238,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3266,16 +3267,16 @@
         <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3324,7 +3325,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3359,10 +3360,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3385,17 +3386,17 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3444,7 +3445,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3459,19 +3460,19 @@
         <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AM12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>20</v>
@@ -3479,10 +3480,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3505,16 +3506,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3564,7 +3565,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3579,19 +3580,19 @@
         <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>20</v>
@@ -3599,14 +3600,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3625,17 +3626,17 @@
         <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3684,7 +3685,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3699,19 +3700,19 @@
         <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>20</v>
@@ -3719,10 +3720,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3745,13 +3746,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3802,7 +3803,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3826,10 +3827,10 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3837,10 +3838,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3863,13 +3864,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3920,7 +3921,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3929,25 +3930,25 @@
         <v>93</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>20</v>
@@ -3955,14 +3956,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3984,13 +3985,13 @@
         <v>140</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="N17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4040,7 +4041,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4067,7 +4068,7 @@
         <v>20</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>20</v>
@@ -4075,14 +4076,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4104,16 +4105,16 @@
         <v>140</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="N18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4162,7 +4163,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4197,10 +4198,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4223,13 +4224,13 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4280,7 +4281,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>93</v>
@@ -4307,7 +4308,7 @@
         <v>20</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4315,10 +4316,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4344,10 +4345,10 @@
         <v>113</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4377,11 +4378,11 @@
         <v>117</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
       </c>
@@ -4398,7 +4399,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>93</v>
@@ -4425,7 +4426,7 @@
         <v>20</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4433,10 +4434,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4459,13 +4460,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4516,7 +4517,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4543,7 +4544,7 @@
         <v>20</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4551,14 +4552,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4577,16 +4578,16 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4636,7 +4637,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4651,19 +4652,19 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4671,10 +4672,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4700,16 +4701,16 @@
         <v>113</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4719,7 +4720,7 @@
         <v>20</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>20</v>
@@ -4737,11 +4738,11 @@
         <v>117</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>93</v>
@@ -4773,19 +4774,19 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4793,10 +4794,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4819,19 +4820,19 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4841,29 +4842,29 @@
         <v>20</v>
       </c>
       <c r="S24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="T24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4898,16 +4899,16 @@
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>20</v>
@@ -4915,14 +4916,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4941,19 +4942,19 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4982,7 +4983,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -5000,7 +5001,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>93</v>
@@ -5009,36 +5010,36 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5061,19 +5062,19 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -5122,7 +5123,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5137,19 +5138,19 @@
         <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
@@ -5157,10 +5158,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5183,16 +5184,16 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5242,7 +5243,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5260,16 +5261,16 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -5277,14 +5278,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5303,19 +5304,19 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5364,7 +5365,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5379,19 +5380,19 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AM28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>20</v>
@@ -5399,14 +5400,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5425,19 +5426,19 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5486,7 +5487,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5501,19 +5502,19 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AM29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
@@ -5521,10 +5522,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5547,16 +5548,16 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5606,7 +5607,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5624,16 +5625,16 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>20</v>
@@ -5641,10 +5642,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5667,17 +5668,17 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5726,7 +5727,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5741,19 +5742,19 @@
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>20</v>
@@ -5761,10 +5762,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5787,19 +5788,19 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5836,7 +5837,7 @@
         <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -5846,7 +5847,7 @@
         <v>144</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5855,7 +5856,7 @@
         <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>105</v>
@@ -5867,27 +5868,27 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AO32" t="s" s="2">
+      <c r="AP32" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>20</v>
@@ -5909,19 +5910,19 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5970,7 +5971,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5979,7 +5980,7 @@
         <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>105</v>
@@ -5991,27 +5992,27 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AO33" t="s" s="2">
+      <c r="AP33" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>20</v>
@@ -6033,19 +6034,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6074,7 +6075,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -6092,7 +6093,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6101,7 +6102,7 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>105</v>
@@ -6113,27 +6114,27 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C35" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>20</v>
@@ -6155,19 +6156,19 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6216,7 +6217,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6225,7 +6226,7 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>105</v>
@@ -6237,24 +6238,24 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AO35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6277,19 +6278,19 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6314,14 +6315,14 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6347,7 +6348,7 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6365,7 +6366,7 @@
         <v>138</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>20</v>
@@ -6373,14 +6374,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6399,19 +6400,19 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6436,14 +6437,14 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6460,7 +6461,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6481,24 +6482,24 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AO37" t="s" s="2">
+      <c r="AP37" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6521,19 +6522,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6582,7 +6583,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6606,10 +6607,10 @@
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>20</v>
@@ -6617,10 +6618,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6643,16 +6644,16 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6678,14 +6679,14 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6702,7 +6703,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6711,7 +6712,7 @@
         <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>105</v>
@@ -6723,24 +6724,24 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AO39" t="s" s="2">
+      <c r="AP39" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6763,16 +6764,16 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6822,7 +6823,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6831,7 +6832,7 @@
         <v>93</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>105</v>
@@ -6849,7 +6850,7 @@
         <v>20</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
@@ -6857,10 +6858,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6883,19 +6884,19 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6920,14 +6921,14 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6968,10 +6969,10 @@
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -6979,10 +6980,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7005,16 +7006,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7064,7 +7065,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7076,33 +7077,33 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AO42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>410</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7125,16 +7126,16 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7184,7 +7185,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7205,24 +7206,24 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AO43" t="s" s="2">
+      <c r="AP43" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7245,19 +7246,19 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7306,7 +7307,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7318,22 +7319,22 @@
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>20</v>
@@ -7341,10 +7342,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7367,13 +7368,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7424,7 +7425,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7433,25 +7434,25 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>20</v>
@@ -7459,14 +7460,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7488,13 +7489,13 @@
         <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7544,7 +7545,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7571,7 +7572,7 @@
         <v>20</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>20</v>
@@ -7579,14 +7580,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7608,16 +7609,16 @@
         <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="N47" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7666,7 +7667,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7701,10 +7702,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7727,13 +7728,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7784,7 +7785,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7793,7 +7794,7 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>105</v>
@@ -7808,10 +7809,10 @@
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>20</v>
@@ -7819,10 +7820,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7845,13 +7846,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7902,7 +7903,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7911,7 +7912,7 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>105</v>
@@ -7926,10 +7927,10 @@
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>20</v>
@@ -7937,10 +7938,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7963,13 +7964,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7996,14 +7997,14 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
       </c>
@@ -8020,7 +8021,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8044,10 +8045,10 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>20</v>
@@ -8055,10 +8056,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8081,19 +8082,19 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8118,14 +8119,14 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
       </c>
@@ -8142,7 +8143,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8163,13 +8164,13 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AN51" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="AO51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>20</v>
@@ -8177,10 +8178,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8203,19 +8204,19 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8240,14 +8241,14 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8264,7 +8265,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8285,13 +8286,13 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AN52" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="AO52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>20</v>
@@ -8299,10 +8300,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8325,17 +8326,17 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8384,7 +8385,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8411,7 +8412,7 @@
         <v>20</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>20</v>
@@ -8419,10 +8420,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8445,13 +8446,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8502,7 +8503,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8511,7 +8512,7 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>105</v>
@@ -8526,10 +8527,10 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>20</v>
@@ -8537,10 +8538,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8563,16 +8564,16 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8622,7 +8623,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8646,10 +8647,10 @@
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>20</v>
@@ -8657,10 +8658,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8683,16 +8684,16 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8742,7 +8743,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8766,10 +8767,10 @@
         <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>20</v>
@@ -8777,10 +8778,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8803,19 +8804,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8864,7 +8865,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8873,7 +8874,7 @@
         <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>105</v>
@@ -8888,10 +8889,10 @@
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>20</v>
@@ -8899,10 +8900,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8925,13 +8926,13 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8982,7 +8983,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8991,25 +8992,25 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>20</v>
@@ -9017,14 +9018,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9046,13 +9047,13 @@
         <v>140</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9102,7 +9103,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9129,7 +9130,7 @@
         <v>20</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>20</v>
@@ -9137,14 +9138,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9166,16 +9167,16 @@
         <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="N60" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9224,7 +9225,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9259,10 +9260,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9285,19 +9286,19 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>499</v>
-      </c>
       <c r="O61" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9322,14 +9323,14 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
       </c>
@@ -9346,7 +9347,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>93</v>
@@ -9355,7 +9356,7 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>105</v>
@@ -9364,16 +9365,16 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>20</v>
@@ -9381,10 +9382,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9407,19 +9408,19 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="O62" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9468,7 +9469,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9489,24 +9490,24 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AN62" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AO62" t="s" s="2">
+      <c r="AP62" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9529,19 +9530,19 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9566,14 +9567,14 @@
         <v>20</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>20</v>
       </c>
@@ -9590,7 +9591,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9617,7 +9618,7 @@
         <v>138</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>20</v>
@@ -9625,14 +9626,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9651,19 +9652,19 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9688,14 +9689,14 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9733,24 +9734,24 @@
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AO64" t="s" s="2">
+      <c r="AP64" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9776,16 +9777,16 @@
         <v>82</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="N65" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9834,7 +9835,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9858,10 +9859,10 @@
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,11 +84,18 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for recording stroke functional outcome and severity scores, currently mRS and NIHSS, in a way that is both interoperable and context-aware. The profile requires a timing context extension (ObservationTimingContextExtension) to explicitly state the clinical phase (e.g., pre-stroke baseline, admission, discharge, ~3-month follow-up), enabling unambiguous interpretation and standardized reporting.
-Observation.code is bound to FunctionalScoreCodesVS, and invariants constrain Observation.value[x] by instrument:
-- For mRS (SNOMED CT observable entity), the result is represented as a CodeableConcept bound to MRsScoreVS (ordinal categories 0–6).
-- For NIHSS (SNOMED CT observable entity), the result is represented as an integer total score (valueInteger), reflecting the overall NIHSS total rather than item-level subscores.
-The profile does not model itemized NIHSS components, assessor training, or interview method; implementers may represent those details separately when needed (e.g., additional Observations, extensions, or provenance).</t>
+    <t>Profile for recording stroke functional outcome and severity scores (currently mRS and NIHSS) in an interoperable, context-aware way.
+**Primary use-case**
+- Capture outcomes by phase (baseline, admission, discharge, ~90-day follow-up) using a required timing context extension.
+**Key constraints**
+- `Observation.code` is bound to FunctionalScoreCodesVS (mRS or NIHSS).
+- `extension[timingContext]` is mandatory to label the clinical phase.
+- Datatype and binding rules are enforced via invariants:
+  - mRS → `valueCodeableConcept` bound to MRsScoreVS.
+  - NIHSS → `valueInteger` as total NIHSS score.
+**Typical scenarios**
+1) An mRS score assessed at discharge would have `Observation.code` = mRS code, `valueCodeableConcept` = mRS grade (0–6), and the timing context extension value = discharge.
+2) An NIHSS score assessed at admission would have `Observation.code` = NIHSS code, `valueInteger` = total NIHSS score, and the timing context extension value = admission.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -493,11 +500,15 @@
     <t>Observation Timing Context Extension</t>
   </si>
   <si>
-    <t>This extension captures the clinical timing context (relative phase) in which an observation or assessment was made (e.g., pre-stroke baseline, admission, discharge, ~3-month follow-up). It is particularly important for functional outcomes and severity scores whose interpretation depends on *when* they were assessed.
-The extension complements Observation.effective[x]:
-- effective[x] records the actual date/time (when known),
-- this extension records the standardized phase label used for reporting and comparability across sites.
-The value is a required CodeableConcept bound to AssessmentContextVS (required), ensuring only supported timing contexts are used in this implementation guide.</t>
+    <t>This extension captures the **clinical timing context (phase)** in which an observation or assessment was made
+(e.g., pre-stroke baseline, admission, discharge, ~3-month follow-up).
+**Primary use-case**
+- Required for functional outcomes and severity scores whose interpretation depends on *when* the score was assessed.
+**How it complements Observation.effective[x]**
+- `effective[x]` records the actual measurement date/time (when known),
+- This extension records the standardized phase label used for reporting and cross-site comparability.
+**Binding**
+- `valueCodeableConcept` is bound (required) to AssessmentContextVS.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
